--- a/data_preprocessing/tablegen.xlsx
+++ b/data_preprocessing/tablegen.xlsx
@@ -441,22 +441,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.76</v>
+        <v>0.55</v>
       </c>
       <c r="C2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="D2" t="n">
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
       <c r="E2" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.89</v>
+        <v>0.66</v>
       </c>
       <c r="C3" t="n">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="D3" t="n">
-        <v>0.92</v>
+        <v>0.74</v>
       </c>
       <c r="E3" t="n">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>0.89</v>
       </c>
       <c r="C4" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="D4" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="E4" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="C5" t="n">
-        <v>0.99</v>
+        <v>0.82</v>
       </c>
       <c r="D5" t="n">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="E5" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.63</v>
+        <v>0.77</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="E6" t="n">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.97</v>
+        <v>0.73</v>
       </c>
       <c r="C7" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.96</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="D8" t="n">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="E8" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -603,13 +603,13 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="D9" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="E9" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="E10" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -641,13 +641,13 @@
         <v>0.89</v>
       </c>
       <c r="C11" t="n">
-        <v>0.98</v>
+        <v>0.82</v>
       </c>
       <c r="D11" t="n">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="D12" t="n">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="E12" t="n">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="C13" t="n">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="D13" t="n">
-        <v>0.82</v>
+        <v>0.61</v>
       </c>
       <c r="E13" t="n">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="C14" t="n">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
       <c r="D14" t="n">
-        <v>0.92</v>
+        <v>0.79</v>
       </c>
       <c r="E14" t="n">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="C15" t="n">
-        <v>0.93</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="E15" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="C16" t="n">
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
       <c r="D16" t="n">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="E16" t="n">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.99</v>
+        <v>0.84</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="D17" t="n">
-        <v>0.97</v>
+        <v>0.84</v>
       </c>
       <c r="E17" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data_preprocessing/tablegen.xlsx
+++ b/data_preprocessing/tablegen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,332 +436,128 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>asia</t>
+          <t>ISBN</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>pearson_corr</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>count</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>bangladesh</t>
-        </is>
+      <c r="A2" t="n">
+        <v>671021001</v>
       </c>
       <c r="B2" t="n">
-        <v>0.55</v>
+        <v>0.705364</v>
       </c>
       <c r="C2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E2" t="n">
-        <v>106</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>business</t>
-        </is>
+      <c r="A3" t="n">
+        <v>60930535</v>
       </c>
       <c r="B3" t="n">
-        <v>0.66</v>
+        <v>0.5781029999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="E3" t="n">
-        <v>95</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>column</t>
-        </is>
+      <c r="A4" t="n">
+        <v>316666343</v>
       </c>
       <c r="B4" t="n">
-        <v>0.89</v>
+        <v>0.502102</v>
       </c>
       <c r="C4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="E4" t="n">
-        <v>113</v>
+        <v>912</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>cricket</t>
-        </is>
+      <c r="A5" t="n">
+        <v>671003755</v>
       </c>
       <c r="B5" t="n">
-        <v>0.89</v>
+        <v>0.5012489999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E5" t="n">
-        <v>105</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>crime</t>
-        </is>
+      <c r="A6" t="n">
+        <v>375727345</v>
       </c>
       <c r="B6" t="n">
-        <v>0.77</v>
+        <v>0.397498</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="E6" t="n">
-        <v>104</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>district</t>
-        </is>
+      <c r="A7" t="n">
+        <v>60928336</v>
       </c>
       <c r="B7" t="n">
-        <v>0.73</v>
+        <v>0.360083</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E7" t="n">
-        <v>100</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>durporobash</t>
-        </is>
+      <c r="A8" t="n">
+        <v>440222656</v>
       </c>
       <c r="B8" t="n">
-        <v>0.83</v>
+        <v>0.332883</v>
       </c>
       <c r="C8" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="E8" t="n">
-        <v>105</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>education</t>
-        </is>
+      <c r="A9" t="n">
+        <v>786868716</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.332187</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="E9" t="n">
-        <v>115</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>entertainment</t>
-        </is>
+      <c r="A10" t="n">
+        <v>446605239</v>
       </c>
       <c r="B10" t="n">
-        <v>0.91</v>
+        <v>0.298391</v>
       </c>
       <c r="C10" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="E10" t="n">
-        <v>104</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>football</t>
-        </is>
+      <c r="A11" t="n">
+        <v>440214041</v>
       </c>
       <c r="B11" t="n">
-        <v>0.89</v>
+        <v>0.286585</v>
       </c>
       <c r="C11" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E11" t="n">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>india</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="E12" t="n">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>life</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E13" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>politics</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="E14" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>science-tech</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="E15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>sports</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="E16" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>world</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="E17" t="n">
-        <v>104</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
